--- a/biology/Histoire de la zoologie et de la botanique/Wilhelm_Joest/Wilhelm_Joest.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Wilhelm_Joest/Wilhelm_Joest.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Joest (Cologne, 15 mars 1852-Îles Banks, 25 novembre 1897) est un naturaliste et explorateur allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né dans une riche famille commerçante, Wilhelm Joest étudie à Heidelberg et à Bonn où il devient membre du Corps Guestphalia Heidelberg (de) (1872) et du Corps Guestphalia Bonn (1875), et voyage dès 1874 en Afrique du Nord. Il effectue ensuite, de 1876 à 1879, une immense randonnée du Canada jusqu'en Argentine pendant laquelle il collecte de nombreux spécimens.
 En 1879, il voyage à Ceylan, traverse l'Inde, atteint l'Himalaya où il assiste à la guerre britannique d'Afghanistan. Il visite ensuite la Birmanie puis Siam, Bornéo, le Cambodge et les Philippines. Depuis Pékin, il gagne le Japon puis la Mongolie et, en 1881, entame son voyage de retour vers l'Europe en traversant la Sibérie.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aus Japan nach Deutschland durch Siberien (1882)
 Das Holontalo, ein Beitrag zur Kenntnis der Sprachen von Celebes (1884)
